--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -25,10 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>경과</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -55,73 +55,53 @@
       </rPr>
       <t>완료</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>풀이진행중 / 완료</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>출력완료 (준비상태)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>패스함</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>13-14</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2013 봄</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>11-12</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2013 가을</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>9-10</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2014 봄</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7-8</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2014 가을</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>9/26(화) 풀이
 76점 (19/25)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>9/25(월) 풀이
 60점 (18/30)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/27_haru/</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2015 봄</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -159,7 +139,7 @@
       </rPr>
       <t xml:space="preserve"> (9/30)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -199,13 +179,13 @@
       </rPr>
       <t xml:space="preserve"> (5.5/14)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>웹 사이트 인시던트 
 9/11(월) 풀이
 78점 (11/14)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -312,7 +292,7 @@
       </rPr>
       <t xml:space="preserve"> (2/9)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -442,7 +422,7 @@
       </rPr>
       <t xml:space="preserve"> (8/15)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -515,24 +495,20 @@
       </rPr>
       <t xml:space="preserve"> (21/25)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>8/31(목) 풀이
 73점 (22/30)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/27_aki/</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2015 가을</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -628,7 +604,7 @@
       </rPr>
       <t xml:space="preserve"> (2/10)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -846,7 +822,7 @@
       </rPr>
       <t xml:space="preserve"> (5/8)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1020,7 +996,7 @@
       </rPr>
       <t xml:space="preserve"> (4/9)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1158,7 +1134,7 @@
       </rPr>
       <t xml:space="preserve"> (8/10)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1231,24 +1207,20 @@
       </rPr>
       <t xml:space="preserve"> (17/25)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>7/31(월) 풀이 
 80점 (24/30)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/28_haru/</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2016 봄</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1387,7 +1359,7 @@
       </rPr>
       <t xml:space="preserve"> (5/9)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1438,7 +1410,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1511,23 +1483,19 @@
       </rPr>
       <t xml:space="preserve">  (4/10)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>패스함</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/28_aki/</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2016 가을</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1664,12 +1632,12 @@
       </rPr>
       <t xml:space="preserve"> (5/8)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CSRF, XSS 
 69점 (5.5/8)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1775,7 +1743,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1870,34 +1838,50 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/29_haru/</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2017 봄</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1/13(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>토</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
     </r>
     <r>
       <rPr>
@@ -1918,234 +1902,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>풀이</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>리뷰</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1/12(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>패스함
 1/9(화) 리뷰</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>실제 시험봤으니까…</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2172,7 +1940,7 @@
       </rPr>
       <t>가을</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2212,7 +1980,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2252,7 +2020,7 @@
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2292,7 +2060,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2332,7 +2100,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2372,7 +2140,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2412,7 +2180,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2452,31 +2220,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>목표주차</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>시기</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>120분</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>120분 (14:30-16:30)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>45분</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2504,7 +2272,7 @@
       </rPr>
       <t xml:space="preserve"> (12:30-14:00)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2532,7 +2300,7 @@
       </rPr>
       <t xml:space="preserve"> (10:50-11:30)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2560,51 +2328,51 @@
       </rPr>
       <t xml:space="preserve"> (09:30-10:20)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>일</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>토</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>금</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>목</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>수</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>화</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>월</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>목표요일</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">오후II 문제는 총 25페이지이므로 문제당 평균 13장 </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>오후 I 문제는 총 15페이지이므로 문제당 평균 5장. 10~11개 정도의 소문제가 출제</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2643,7 +2411,7 @@
       </rPr>
       <t>정도</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2682,24 +2450,67 @@
       </rPr>
       <t>정도</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>분량</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8-9</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10-11</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>12-13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>14-15</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3133,7 +2944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3142,184 +2953,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -3328,13 +3139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -3629,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3648,278 +3459,268 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="64" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="62" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="66"/>
       <c r="I1" s="59" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="64" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="65" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="64" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="62" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="41" customFormat="1">
       <c r="A4" s="57" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" s="41" customFormat="1" ht="60.75" customHeight="1">
       <c r="A5" s="50" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="61.5" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="60" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="59.25" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="24"/>
@@ -3929,11 +3730,11 @@
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>4</v>
@@ -3947,11 +3748,11 @@
     </row>
     <row r="12" spans="1:11" ht="67.5" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>4</v>
@@ -3965,11 +3766,11 @@
     </row>
     <row r="13" spans="1:11" ht="67.5" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="21" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>4</v>
@@ -3983,11 +3784,11 @@
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="14" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
@@ -4278,7 +4079,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
@@ -4299,7 +4100,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>경과</t>
     <phoneticPr fontId="3"/>
@@ -2457,7 +2457,23 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10-11</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>12-13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>14-15</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2465,31 +2481,19 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>7</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>8-9</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>10-11</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>12-13</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>14-15</t>
+    <t>9</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3440,8 +3444,8 @@
   </sheetPr>
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3574,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>43</v>
@@ -3597,7 +3601,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>33</v>
@@ -3625,7 +3629,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>33</v>
@@ -3651,7 +3655,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>27</v>
@@ -3682,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>19</v>
@@ -3714,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>10</v>
@@ -3734,7 +3738,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>4</v>
@@ -3752,7 +3756,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>4</v>
@@ -3770,7 +3774,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>4</v>
@@ -3788,7 +3792,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>

--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -2465,18 +2465,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>10-11</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>12-13</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>14-15</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2494,6 +2482,18 @@
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3444,8 +3444,8 @@
   </sheetPr>
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3578,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>43</v>
@@ -3629,7 +3629,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>33</v>
@@ -3686,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>19</v>
@@ -3718,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>10</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>4</v>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>4</v>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>4</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>

--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -3445,7 +3445,7 @@
   <dimension ref="A1:L296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>경과</t>
     <phoneticPr fontId="3"/>
@@ -2457,7 +2457,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>5</t>
+    <t>10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2465,35 +2473,23 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>14</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3444,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3601,7 +3597,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>33</v>
@@ -3629,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>33</v>
@@ -3655,7 +3651,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>27</v>
@@ -3718,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>10</v>
@@ -3756,7 +3752,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>4</v>
@@ -3774,7 +3770,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>4</v>
@@ -3792,7 +3788,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>

--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>경과</t>
     <phoneticPr fontId="3"/>
@@ -67,14 +67,6 @@
   </si>
   <si>
     <t>패스함</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2013 봄</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2013 가을</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2461,27 +2453,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>12</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>11</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2949,7 +2929,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3085,9 +3065,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3152,6 +3129,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3438,10 +3421,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L296"/>
+  <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3458,132 +3441,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="66"/>
+      <c r="F1" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
-      <c r="B2" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="E2" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="G2" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>63</v>
       </c>
+      <c r="I2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>56</v>
       </c>
+      <c r="H3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="41" customFormat="1">
-      <c r="A4" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="G4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>46</v>
       </c>
+      <c r="I4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" s="41" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="43"/>
       <c r="I5" s="44"/>
       <c r="J5" s="43"/>
@@ -3591,136 +3574,136 @@
     </row>
     <row r="6" spans="1:11" ht="61.5" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="60" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="59.25" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="24"/>
@@ -3730,11 +3713,11 @@
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>4</v>
@@ -3747,171 +3730,147 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -4061,20 +4020,8 @@
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="296" spans="12:12">
-      <c r="L296" s="2" t="s">
+    <row r="294" spans="12:12">
+      <c r="L294" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/certificate/sc-japan/과거문제정리.xlsx
+++ b/certificate/sc-japan/과거문제정리.xlsx
@@ -25,10 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>경과</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -55,45 +55,33 @@
       </rPr>
       <t>완료</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>풀이진행중 / 완료</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>출력완료 (준비상태)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>패스함</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2014 봄</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2014 가을</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>9/26(화) 풀이
 76점 (19/25)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>9/25(월) 풀이
 60점 (18/30)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/27_haru/</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2015 봄</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -131,7 +119,7 @@
       </rPr>
       <t xml:space="preserve"> (9/30)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -171,13 +159,13 @@
       </rPr>
       <t xml:space="preserve"> (5.5/14)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>웹 사이트 인시던트 
 9/11(월) 풀이
 78점 (11/14)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -284,7 +272,7 @@
       </rPr>
       <t xml:space="preserve"> (2/9)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -414,7 +402,7 @@
       </rPr>
       <t xml:space="preserve"> (8/15)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -487,20 +475,20 @@
       </rPr>
       <t xml:space="preserve"> (21/25)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>8/31(목) 풀이
 73점 (22/30)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/27_aki/</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2015 가을</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -596,7 +584,7 @@
       </rPr>
       <t xml:space="preserve"> (2/10)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -814,7 +802,7 @@
       </rPr>
       <t xml:space="preserve"> (5/8)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -988,7 +976,7 @@
       </rPr>
       <t xml:space="preserve"> (4/9)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1126,7 +1114,7 @@
       </rPr>
       <t xml:space="preserve"> (8/10)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1199,20 +1187,20 @@
       </rPr>
       <t xml:space="preserve"> (17/25)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>7/31(월) 풀이 
 80점 (24/30)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/28_haru/</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2016 봄</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1351,7 +1339,7 @@
       </rPr>
       <t xml:space="preserve"> (5/9)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1402,7 +1390,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1475,19 +1463,19 @@
       </rPr>
       <t xml:space="preserve">  (4/10)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>패스함</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/28_aki/</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2016 가을</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1624,12 +1612,12 @@
       </rPr>
       <t xml:space="preserve"> (5/8)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CSRF, XSS 
 69점 (5.5/8)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1735,7 +1723,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1830,15 +1818,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>http://www.sc-siken.com/kakomon/29_haru/</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2017 봄</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1896,16 +1884,16 @@
       </rPr>
       <t>리뷰</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>패스함
 1/9(화) 리뷰</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>실제 시험봤으니까…</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1932,7 +1920,7 @@
       </rPr>
       <t>가을</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1972,7 +1960,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2012,7 +2000,7 @@
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2052,7 +2040,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2092,7 +2080,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2132,7 +2120,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2172,7 +2160,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2212,31 +2200,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>목표주차</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>시기</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>120분</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>120분 (14:30-16:30)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>45분</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2264,7 +2252,7 @@
       </rPr>
       <t xml:space="preserve"> (12:30-14:00)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2292,7 +2280,7 @@
       </rPr>
       <t xml:space="preserve"> (10:50-11:30)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2320,51 +2308,51 @@
       </rPr>
       <t xml:space="preserve"> (09:30-10:20)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>일</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>토</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>금</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>목</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>수</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>화</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>월</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>목표요일</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">오후II 문제는 총 25페이지이므로 문제당 평균 13장 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>오후 I 문제는 총 15페이지이므로 문제당 평균 5장. 10~11개 정도의 소문제가 출제</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2403,7 +2391,7 @@
       </rPr>
       <t>정도</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -2442,48 +2430,43 @@
       </rPr>
       <t>정도</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>분량</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2656,70 +2639,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2924,217 +2849,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3421,10 +3319,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L294"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3441,344 +3339,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="58" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="E1" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
-      <c r="B2" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="E2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="F2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="G2" s="50" t="s">
         <v>61</v>
       </c>
+      <c r="H2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="58" t="s">
+      <c r="E3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="F3" s="49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="41" customFormat="1">
-      <c r="A4" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="H3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="J3" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="53" t="s">
+    </row>
+    <row r="4" spans="1:11" s="32" customFormat="1">
+      <c r="A4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="B4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="C4" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="D4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="E4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="F4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="G4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:11" s="41" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="H4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="J4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" s="32" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42"/>
+      <c r="B5" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="A6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="60" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="29" t="s">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="C7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="F8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="32"/>
+      <c r="G8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="G9" s="21" t="s">
         <v>11</v>
       </c>
+      <c r="H9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3"/>
@@ -4008,25 +3882,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="294" spans="12:12">
-      <c r="L294" s="2" t="s">
+    <row r="292" spans="12:12">
+      <c r="L292" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
@@ -4047,7 +3909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>